--- a/Data_science/Mathematical/images/FigurePlot-Reference-Unigenes.absolute.level1.xlsx
+++ b/Data_science/Mathematical/images/FigurePlot-Reference-Unigenes.absolute.level1.xlsx
@@ -19,9 +19,6 @@
     <definedName name="_xlchart.v1.0" hidden="1">'FigurePlot-Reference-Unigenes.a'!$A$2:$A$8</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">'FigurePlot-Reference-Unigenes.a'!$B$1</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">'FigurePlot-Reference-Unigenes.a'!$B$2:$B$8</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'FigurePlot-Reference-Unigenes.a'!$A$2:$A$8</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'FigurePlot-Reference-Unigenes.a'!$B$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'FigurePlot-Reference-Unigenes.a'!$B$2:$B$8</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -858,6 +855,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-810B-4E0B-8673-7547CF32339C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -873,6 +875,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-810B-4E0B-8673-7547CF32339C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -888,6 +895,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-810B-4E0B-8673-7547CF32339C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -903,6 +915,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-810B-4E0B-8673-7547CF32339C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -918,6 +935,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-810B-4E0B-8673-7547CF32339C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -933,6 +955,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-810B-4E0B-8673-7547CF32339C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -950,6 +977,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-810B-4E0B-8673-7547CF32339C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
@@ -967,6 +999,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-810B-4E0B-8673-7547CF32339C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -1215,6 +1252,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-2005-4A06-85BC-42CBE3BB7C13}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -1230,6 +1272,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-2005-4A06-85BC-42CBE3BB7C13}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -1245,6 +1292,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-2005-4A06-85BC-42CBE3BB7C13}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -1260,6 +1312,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-2005-4A06-85BC-42CBE3BB7C13}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -1275,6 +1332,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-2005-4A06-85BC-42CBE3BB7C13}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -1290,6 +1352,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-2005-4A06-85BC-42CBE3BB7C13}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -1307,6 +1374,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-2005-4A06-85BC-42CBE3BB7C13}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
@@ -1324,6 +1396,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-2005-4A06-85BC-42CBE3BB7C13}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -4547,16 +4624,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4577,16 +4654,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4607,16 +4684,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>647699</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>457199</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -4977,7 +5054,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C1048576"/>
+      <selection activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
